--- a/profs/xlsx/Расписание Сурков Дмитрий Александрович.xlsx
+++ b/profs/xlsx/Расписание Сурков Дмитрий Александрович.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Сурков Д.А.</t>
@@ -84,10 +84,13 @@
     <t xml:space="preserve">ауд.322(3), Микропроцессорная техника в приборах, системах и комплексах, ЛК, 3О-505С-14 (14.09-21.12) </t>
   </si>
   <si>
+    <t xml:space="preserve">ауд.каф.(-), Микропроцессорная техника в приборах, системах и комплексах, ПЗ, 3О-505С-14 (14.09-21.12) </t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд.322(3), Проектирование приборных комплексов, ЛК, 3О-505С-14 (07.09-28.12) </t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.каф.(-), Микропроцессорная техника в приборах, системах и комплексах, ПЗ, 3О-505С-14 (07.09-28.12) </t>
+    <t xml:space="preserve">ауд.322(3), Проектирование приборных комплексов, ЛК, 3О-505С-14 (07.09-02.11) </t>
   </si>
   <si>
     <t xml:space="preserve">Суббота</t>
@@ -477,14 +480,16 @@
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -506,7 +511,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -533,13 +538,13 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="52">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -572,7 +577,6 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>

--- a/profs/xlsx/Расписание Сурков Дмитрий Александрович.xlsx
+++ b/profs/xlsx/Расписание Сурков Дмитрий Александрович.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -308,8 +308,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
